--- a/R/data/data_cardio.xlsx
+++ b/R/data/data_cardio.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maury\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\teaching\repo_24_g01\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14D27F-C775-429C-AA71-F1AD3A751483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE599F6-6150-40FB-B284-972F967DF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{94E63E81-B7DF-4F22-B919-2A609C9FAF7B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{94E63E81-B7DF-4F22-B919-2A609C9FAF7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="gorszy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -58,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3188B1-CE62-408F-BF31-5BA83924BD5A}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -1567,4 +1569,1139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A2892B-9CBD-47DD-991C-A3D85D68D5D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5632A1ED-7E6E-4B67-B319-5AEBF22A4DEB}">
+  <dimension ref="A1:E152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="C2">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.91597222222222219</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="C4">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.85486111111111107</v>
+      </c>
+      <c r="C5">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="C6">
+        <v>137</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C7">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C8">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C9">
+        <v>134</v>
+      </c>
+      <c r="D9">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="C10">
+        <v>133</v>
+      </c>
+      <c r="D10">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.75763888888888886</v>
+      </c>
+      <c r="C12">
+        <v>122</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C13">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>91</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="C14">
+        <v>122</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="C15">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="C16">
+        <v>121</v>
+      </c>
+      <c r="D16">
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="C17">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="C18">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>74</v>
+      </c>
+      <c r="E18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="C19">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="C20">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C21">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C22">
+        <v>132</v>
+      </c>
+      <c r="D22">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="C23">
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="C24">
+        <v>128</v>
+      </c>
+      <c r="D24">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C25">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.86805555555555558</v>
+      </c>
+      <c r="C26">
+        <v>127</v>
+      </c>
+      <c r="D26">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27">
+        <v>132</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C28">
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>76</v>
+      </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C29">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.85347222222222219</v>
+      </c>
+      <c r="C30">
+        <v>123</v>
+      </c>
+      <c r="D30">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.85902777777777772</v>
+      </c>
+      <c r="C31">
+        <v>132</v>
+      </c>
+      <c r="D31">
+        <v>81</v>
+      </c>
+      <c r="E31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="C32">
+        <v>143</v>
+      </c>
+      <c r="D32">
+        <v>92</v>
+      </c>
+      <c r="E32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="C33">
+        <v>133</v>
+      </c>
+      <c r="D33">
+        <v>84</v>
+      </c>
+      <c r="E33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A34" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C34">
+        <v>139</v>
+      </c>
+      <c r="D34">
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A35" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="C35">
+        <v>126</v>
+      </c>
+      <c r="D35">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C36">
+        <v>138</v>
+      </c>
+      <c r="D36">
+        <v>93</v>
+      </c>
+      <c r="E36">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="C37">
+        <v>126</v>
+      </c>
+      <c r="D37">
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{23A32728-5C1A-4785-BB1D-4A094E876A2D}">
+      <formula1>0</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576" xr:uid="{0D164F00-E74F-4027-BF0A-81611D22E9DA}">
+      <formula1>0</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{7ACDB132-EBDF-40AC-9F1F-04A4F106D308}">
+      <formula1>45597</formula1>
+      <formula2>46022</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/R/data/data_cardio.xlsx
+++ b/R/data/data_cardio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\teaching\repo_24_g01\R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE599F6-6150-40FB-B284-972F967DF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A389211-B401-4323-9D31-E0253364DA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{94E63E81-B7DF-4F22-B919-2A609C9FAF7B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>date</t>
   </si>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,15 +103,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1585,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5632A1ED-7E6E-4B67-B319-5AEBF22A4DEB}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -1599,22 +1617,25 @@
     <col min="5" max="5" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>45600</v>
       </c>
@@ -1631,7 +1652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>45600</v>
       </c>
@@ -1648,7 +1669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>45601</v>
       </c>
@@ -1665,7 +1686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>45601</v>
       </c>
@@ -1682,7 +1703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>45602</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>45603</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>45603</v>
       </c>
@@ -1733,7 +1754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>45604</v>
       </c>
@@ -1750,7 +1771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>45604</v>
       </c>
@@ -1767,7 +1788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>45605</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>45605</v>
       </c>
@@ -1801,7 +1822,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>45606</v>
       </c>
@@ -1818,7 +1839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>45606</v>
       </c>
@@ -1835,7 +1856,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>45607</v>
       </c>
@@ -1852,7 +1873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>45607</v>
       </c>
@@ -2227,110 +2248,266 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1">
+        <v>45619</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="C38">
+        <v>122</v>
+      </c>
+      <c r="D38">
+        <v>77</v>
+      </c>
+      <c r="E38">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="C39">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>81</v>
+      </c>
+      <c r="E39">
+        <v>90</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="C40">
+        <v>131</v>
+      </c>
+      <c r="D40">
+        <v>84</v>
+      </c>
+      <c r="E40">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="C41">
+        <v>137</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <v>81</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.86041666666666672</v>
+      </c>
+      <c r="C42">
+        <v>127</v>
+      </c>
+      <c r="D42">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="C43">
+        <v>134</v>
+      </c>
+      <c r="D43">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>77</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="C44">
+        <v>126</v>
+      </c>
+      <c r="D44">
+        <v>86</v>
+      </c>
+      <c r="E44">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="C45">
+        <v>126</v>
+      </c>
+      <c r="D45">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="C46">
+        <v>121</v>
+      </c>
+      <c r="D46">
+        <v>74</v>
+      </c>
+      <c r="E46">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="C47">
+        <v>137</v>
+      </c>
+      <c r="D47">
+        <v>91</v>
+      </c>
+      <c r="E47">
+        <v>99</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="C48">
+        <v>131</v>
+      </c>
+      <c r="D48">
+        <v>82</v>
+      </c>
+      <c r="E48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A49" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C49">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
     </row>
@@ -2692,7 +2869,7 @@
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:D1048576" xr:uid="{0D164F00-E74F-4027-BF0A-81611D22E9DA}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 C2:C1048576" xr:uid="{0D164F00-E74F-4027-BF0A-81611D22E9DA}">
       <formula1>0</formula1>
       <formula2>300</formula2>
     </dataValidation>
